--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1114.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1114.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.027062590470961</v>
+        <v>1.172157764434814</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>2.385447978973389</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.789420935172592</v>
+        <v>2.371347188949585</v>
       </c>
       <c r="E1">
-        <v>1.23412034262954</v>
+        <v>1.209865927696228</v>
       </c>
     </row>
   </sheetData>
